--- a/resources/concepts.xlsx
+++ b/resources/concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CNPA2\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m197951\Documents\medspacyV\test_project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316134B-1D21-4358-A4A2-DB7A8A116146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC86448A-AB8C-47B2-9D3F-92FFC4954BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23892" yWindow="768" windowWidth="20844" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>CONCEPT_ID</t>
   </si>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>REGULAR_EXPRESSION?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TrigeminalNeuralgia</t>
+  </si>
+  <si>
+    <t>trigem\w+ neur[ao]lgia</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>NeuralStuff</t>
+  </si>
+  <si>
+    <t>(nerves?|ganglion)</t>
   </si>
 </sst>
 </file>
@@ -96,12 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,24 +427,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
     <col min="6" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,12 +461,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{A47E6762-33D8-452D-B707-E9788D96BCA7}">
